--- a/po_analysis_by_asin/B0CW2BM5MV_po_data.xlsx
+++ b/po_analysis_by_asin/B0CW2BM5MV_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>8</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45376</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>30</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>54</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>14</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>10</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>68</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>38</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>72</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>24</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>78</v>

--- a/po_analysis_by_asin/B0CW2BM5MV_po_data.xlsx
+++ b/po_analysis_by_asin/B0CW2BM5MV_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -581,7 +582,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -631,6 +632,341 @@
       </c>
       <c r="B7" t="n">
         <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-17.65803011345704</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.32880897832849</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-15.82609942668298</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.30947364770498</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-9.193175961991718</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.25819574264543</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.929270805954582</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.34797955842701</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-8.265940654728816</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.07445160124044</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-8.024283550569264</v>
+      </c>
+      <c r="D7" t="n">
+        <v>42.49166109349532</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-9.185830716550086</v>
+      </c>
+      <c r="D8" t="n">
+        <v>44.00222930756258</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-7.656485084964252</v>
+      </c>
+      <c r="D9" t="n">
+        <v>43.05267837482739</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.760830549030146</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43.44600421922447</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-6.739642272186273</v>
+      </c>
+      <c r="D11" t="n">
+        <v>42.66724327756742</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-8.059742736594536</v>
+      </c>
+      <c r="D12" t="n">
+        <v>44.9155749843389</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-4.592077043791006</v>
+      </c>
+      <c r="D13" t="n">
+        <v>44.75856737829242</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>21</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-4.371231302353982</v>
+      </c>
+      <c r="D14" t="n">
+        <v>44.35478614916112</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.319396230902302</v>
+      </c>
+      <c r="D15" t="n">
+        <v>46.82654264066245</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-3.318305014230794</v>
+      </c>
+      <c r="D16" t="n">
+        <v>44.40043885823146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.475222516951801</v>
+      </c>
+      <c r="D17" t="n">
+        <v>47.44608812930522</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.176078380049506</v>
+      </c>
+      <c r="D18" t="n">
+        <v>48.13110481914438</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.698587494548043</v>
+      </c>
+      <c r="D19" t="n">
+        <v>46.60073149377291</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>23</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.870587713303603</v>
+      </c>
+      <c r="D20" t="n">
+        <v>48.67962470672012</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>23</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.470330134543165</v>
+      </c>
+      <c r="D21" t="n">
+        <v>47.1717534601454</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>24</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.015736029566218</v>
+      </c>
+      <c r="D22" t="n">
+        <v>48.5119160643932</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CW2BM5MV_po_data.xlsx
+++ b/po_analysis_by_asin/B0CW2BM5MV_po_data.xlsx
@@ -645,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,16 +664,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -682,12 +672,6 @@
       <c r="B2" t="n">
         <v>9</v>
       </c>
-      <c r="C2" t="n">
-        <v>-17.65803011345704</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.32880897832849</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -696,12 +680,6 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>-15.82609942668298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.30947364770498</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -710,12 +688,6 @@
       <c r="B4" t="n">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
-        <v>-9.193175961991718</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.25819574264543</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -724,12 +696,6 @@
       <c r="B5" t="n">
         <v>16</v>
       </c>
-      <c r="C5" t="n">
-        <v>-8.929270805954582</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40.34797955842701</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -738,12 +704,6 @@
       <c r="B6" t="n">
         <v>17</v>
       </c>
-      <c r="C6" t="n">
-        <v>-8.265940654728816</v>
-      </c>
-      <c r="D6" t="n">
-        <v>43.07445160124044</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -752,12 +712,6 @@
       <c r="B7" t="n">
         <v>18</v>
       </c>
-      <c r="C7" t="n">
-        <v>-8.024283550569264</v>
-      </c>
-      <c r="D7" t="n">
-        <v>42.49166109349532</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -766,12 +720,6 @@
       <c r="B8" t="n">
         <v>18</v>
       </c>
-      <c r="C8" t="n">
-        <v>-9.185830716550086</v>
-      </c>
-      <c r="D8" t="n">
-        <v>44.00222930756258</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -780,12 +728,6 @@
       <c r="B9" t="n">
         <v>18</v>
       </c>
-      <c r="C9" t="n">
-        <v>-7.656485084964252</v>
-      </c>
-      <c r="D9" t="n">
-        <v>43.05267837482739</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -794,12 +736,6 @@
       <c r="B10" t="n">
         <v>19</v>
       </c>
-      <c r="C10" t="n">
-        <v>-5.760830549030146</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43.44600421922447</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -808,12 +744,6 @@
       <c r="B11" t="n">
         <v>19</v>
       </c>
-      <c r="C11" t="n">
-        <v>-6.739642272186273</v>
-      </c>
-      <c r="D11" t="n">
-        <v>42.66724327756742</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -822,12 +752,6 @@
       <c r="B12" t="n">
         <v>19</v>
       </c>
-      <c r="C12" t="n">
-        <v>-8.059742736594536</v>
-      </c>
-      <c r="D12" t="n">
-        <v>44.9155749843389</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -836,12 +760,6 @@
       <c r="B13" t="n">
         <v>20</v>
       </c>
-      <c r="C13" t="n">
-        <v>-4.592077043791006</v>
-      </c>
-      <c r="D13" t="n">
-        <v>44.75856737829242</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -850,12 +768,6 @@
       <c r="B14" t="n">
         <v>21</v>
       </c>
-      <c r="C14" t="n">
-        <v>-4.371231302353982</v>
-      </c>
-      <c r="D14" t="n">
-        <v>44.35478614916112</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -864,12 +776,6 @@
       <c r="B15" t="n">
         <v>21</v>
       </c>
-      <c r="C15" t="n">
-        <v>-3.319396230902302</v>
-      </c>
-      <c r="D15" t="n">
-        <v>46.82654264066245</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -878,12 +784,6 @@
       <c r="B16" t="n">
         <v>21</v>
       </c>
-      <c r="C16" t="n">
-        <v>-3.318305014230794</v>
-      </c>
-      <c r="D16" t="n">
-        <v>44.40043885823146</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -892,12 +792,6 @@
       <c r="B17" t="n">
         <v>22</v>
       </c>
-      <c r="C17" t="n">
-        <v>-2.475222516951801</v>
-      </c>
-      <c r="D17" t="n">
-        <v>47.44608812930522</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -906,12 +800,6 @@
       <c r="B18" t="n">
         <v>22</v>
       </c>
-      <c r="C18" t="n">
-        <v>-2.176078380049506</v>
-      </c>
-      <c r="D18" t="n">
-        <v>48.13110481914438</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -920,12 +808,6 @@
       <c r="B19" t="n">
         <v>22</v>
       </c>
-      <c r="C19" t="n">
-        <v>-1.698587494548043</v>
-      </c>
-      <c r="D19" t="n">
-        <v>46.60073149377291</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -934,12 +816,6 @@
       <c r="B20" t="n">
         <v>23</v>
       </c>
-      <c r="C20" t="n">
-        <v>-1.870587713303603</v>
-      </c>
-      <c r="D20" t="n">
-        <v>48.67962470672012</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -948,12 +824,6 @@
       <c r="B21" t="n">
         <v>23</v>
       </c>
-      <c r="C21" t="n">
-        <v>-4.470330134543165</v>
-      </c>
-      <c r="D21" t="n">
-        <v>47.1717534601454</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -961,12 +831,6 @@
       </c>
       <c r="B22" t="n">
         <v>24</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-2.015736029566218</v>
-      </c>
-      <c r="D22" t="n">
-        <v>48.5119160643932</v>
       </c>
     </row>
   </sheetData>
